--- a/BackTest/2020-01-19 BackTest SOC.xlsx
+++ b/BackTest/2020-01-19 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-1245975.57744955</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1245975.57744955</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1240550.88424955</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1240800.469149549</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1418513.467949549</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1418463.467949549</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1418673.546749549</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1418673.546749549</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1418312.113649549</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1419741.629449549</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1419741.629449549</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1439347.572449549</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1451698.696049549</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1451698.696049549</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1451698.696049549</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1451698.696049549</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1451698.696049549</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1547819.097349549</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1547819.097349549</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1550342.607349549</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1550342.607349549</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1544615.901349549</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1565322.241349549</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1568462.85134955</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1575225.56134955</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1852180.35344955</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2512754.06174955</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -6325,14 +6325,10 @@
         <v>-3649718.079681472</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="J180" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6365,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7298,17 +7282,11 @@
         <v>-4412847.058468429</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>10.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7337,17 +7315,15 @@
         <v>-4406809.59286843</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>10.57</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7379,10 +7355,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -7416,7 +7394,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,10 +7430,14 @@
         <v>-4434611.39716843</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,7 +7474,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7527,7 +7513,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7564,7 +7552,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7601,7 +7591,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,7 +7630,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7675,7 +7669,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7712,7 +7708,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7749,7 +7747,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7786,7 +7786,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7823,7 +7825,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,7 +7864,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,7 +7903,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7934,7 +7942,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,7 +7981,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,7 +8020,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8045,7 +8059,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8082,7 +8098,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,7 +8137,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,7 +8176,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,7 +8215,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8230,7 +8254,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,7 +8293,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,7 +8332,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,10 +8368,14 @@
         <v>-4471737.85926843</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="J237" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,7 +8412,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8452,7 +8490,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,7 +8529,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,7 +8568,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,7 +8607,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,7 +8646,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,7 +8685,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,7 +8724,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,7 +8763,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,7 +8802,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,7 +8880,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,7 +8919,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,7 +8958,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,7 +8997,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,7 +9036,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,7 +9075,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9044,7 +9114,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,7 +9153,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9118,7 +9192,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,10 +9228,14 @@
         <v>-4635852.558856742</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,10 +9269,14 @@
         <v>-4635852.558856742</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="J260" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,10 +9310,14 @@
         <v>-4633971.906256742</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,10 +9351,14 @@
         <v>-4633971.906256742</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,10 +9392,14 @@
         <v>-4633827.735656742</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,7 +9436,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,10 +9472,14 @@
         <v>-4632573.320956742</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +9516,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9451,7 +9555,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,7 +9594,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9525,7 +9633,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,7 +9672,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +9711,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,7 +9750,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,7 +9789,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,7 +9828,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,7 +9867,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9784,7 +9906,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,7 +9945,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,7 +9984,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9895,7 +10023,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,7 +10062,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9969,7 +10101,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,7 +10140,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,7 +10179,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,7 +10218,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10117,7 +10257,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10154,7 +10296,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10191,7 +10335,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10228,7 +10374,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10265,7 +10413,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,7 +10452,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,7 +10491,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,7 +10530,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,7 +10569,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10450,7 +10608,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10487,7 +10647,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10524,7 +10686,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10561,7 +10725,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10598,7 +10764,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10635,7 +10803,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,7 +10842,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,7 +10881,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,7 +10920,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10783,7 +10959,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10820,7 +10998,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,7 +11037,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10894,7 +11076,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10931,7 +11115,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,7 +11154,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,7 +11193,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11042,7 +11232,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11079,7 +11271,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11116,7 +11310,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11153,7 +11349,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,10 +11385,14 @@
         <v>-5097551.45236168</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="J314" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,10 +11426,14 @@
         <v>-5097551.45236168</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J315" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,10 +11467,14 @@
         <v>-5097551.45236168</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J316" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11301,7 +11511,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,7 +11589,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,7 +11628,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11449,7 +11667,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11486,7 +11706,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,7 +11745,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11560,7 +11784,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,7 +11823,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,10 +11859,14 @@
         <v>-5085149.41896168</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J326" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,12 +11900,14 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>10.54</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,10 +11941,14 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J328" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11744,10 +11982,14 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J329" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,10 +12023,14 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J330" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11818,12 +12064,12 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,12 +12103,14 @@
         <v>-5071823.356861681</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>10.52</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,12 +12144,12 @@
         <v>-4867340.033161491</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,7 +12186,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11972,10 +12222,14 @@
         <v>-4806295.833061491</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J335" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,10 +12263,14 @@
         <v>-4780230.965561491</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J336" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12046,10 +12304,14 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="J337" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,7 +12348,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,7 +12387,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,7 +12426,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,7 +12465,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12234,7 +12504,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,7 +12543,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12308,7 +12582,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,10 +12618,14 @@
         <v>-4933330.507561491</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J345" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,10 +12659,14 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J346" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,12 +12700,14 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>10.55</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,12 +12741,14 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>10.55</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,12 +12782,14 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>10.55</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,12 +12823,14 @@
         <v>-4935004.842461491</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>10.55</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,12 +12864,12 @@
         <v>-4966405.854761491</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,12 +12903,12 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12650,12 +12942,12 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12692,7 +12984,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,12 +13020,12 @@
         <v>-4514252.941917566</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12768,7 +13062,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12805,7 +13101,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12842,7 +13140,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12879,7 +13179,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,7 +13218,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12953,7 +13257,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12990,7 +13296,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13027,7 +13335,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13064,7 +13374,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13101,7 +13413,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13138,7 +13452,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13175,7 +13491,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13212,7 +13530,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13249,7 +13569,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13286,7 +13608,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13320,12 +13644,12 @@
         <v>-4887662.170639159</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13359,12 +13683,12 @@
         <v>-4965261.460739159</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13398,12 +13722,14 @@
         <v>-4969272.630739159</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>10.56</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13437,12 +13763,14 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>10.55</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13476,12 +13804,14 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>10.56</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13515,12 +13845,14 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>10.56</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,12 +13886,14 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>10.56</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13593,12 +13927,14 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>10.54</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13632,12 +13968,14 @@
         <v>-4952647.541639159</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>10.54</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13671,12 +14009,14 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>10.69</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13713,7 +14053,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13747,12 +14089,12 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,10 +14128,14 @@
         <v>-4952555.775539159</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J383" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13823,12 +14169,14 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>10.55</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13862,10 +14210,14 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J385" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +14254,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,10 +14290,14 @@
         <v>-4952277.147171234</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J387" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,7 +14334,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,7 +14373,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14050,7 +14412,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,7 +14451,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14124,7 +14490,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,7 +14529,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,7 +14568,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,7 +14607,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,7 +14646,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,7 +14685,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,7 +14724,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,7 +14763,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,7 +14802,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14457,7 +14841,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,7 +14880,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,7 +14919,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14568,7 +14958,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,7 +14997,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,7 +15036,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,7 +15075,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,7 +15114,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,7 +15153,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,7 +15192,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +15231,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14864,7 +15270,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14901,7 +15309,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,7 +15348,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +15387,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,7 +15426,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,7 +15465,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15086,7 +15504,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15123,7 +15543,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15160,7 +15582,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15197,7 +15621,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15234,7 +15660,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15271,7 +15699,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,7 +15738,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +15777,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15382,7 +15816,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,7 +15855,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,7 +15894,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,7 +15933,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15530,7 +15972,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15567,7 +16011,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,7 +16050,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,7 +16089,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,7 +16128,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,7 +16167,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15752,7 +16206,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,7 +16245,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15826,7 +16284,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15863,7 +16323,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,7 +16362,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15937,7 +16401,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15974,7 +16440,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,7 +16479,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16048,7 +16518,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16085,7 +16557,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,7 +16596,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,7 +16635,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,7 +16674,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16233,7 +16713,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,7 +16752,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16307,7 +16791,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16344,7 +16830,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16381,7 +16869,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16418,7 +16908,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,12 +16944,14 @@
         <v>-5669318.058823594</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>10.61</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,10 +16985,14 @@
         <v>-5687483.548823594</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J456" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16531,7 +17029,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,7 +17068,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16605,7 +17107,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,10 +17143,14 @@
         <v>-5759258.150523594</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="J460" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16676,10 +17184,14 @@
         <v>-5759210.150523594</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="J461" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16713,10 +17225,14 @@
         <v>-5759162.150523594</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="J462" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16753,7 +17269,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16790,7 +17308,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,7 +17347,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,7 +17386,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,7 +17425,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16938,7 +17464,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,7 +17503,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,7 +17542,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17049,7 +17581,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17086,7 +17620,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17123,7 +17659,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17160,7 +17698,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17194,10 +17734,14 @@
         <v>-6060972.478623594</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J475" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,7 +17778,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,7 +17817,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,7 +17856,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17345,7 +17895,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17382,7 +17934,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,7 +17973,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17456,7 +18012,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17493,7 +18051,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17530,7 +18090,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,7 +18129,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,7 +18168,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17638,12 +18204,12 @@
         <v>-6139608.799223593</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J487" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17680,7 +18246,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17717,7 +18285,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,7 +18324,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,7 +18363,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>10.57</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17803,6 +18377,6 @@
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest SOC.xlsx
+++ b/BackTest/2020-01-19 BackTest SOC.xlsx
@@ -451,7 +451,7 @@
         <v>-1116667.87984955</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1296421.90204955</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1418513.467949549</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2479370.170349549</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2480885.400349549</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4403980.14376843</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4403903.14376843</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-4554134.204986399</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9064,10 +9064,14 @@
         <v>-4633827.735656742</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9100,8 +9104,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -11143,10 +11159,14 @@
         <v>-5085149.41896168</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J326" t="n">
+        <v>10.54</v>
+      </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
@@ -11179,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11235,19 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J328" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11276,19 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J329" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11317,19 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="J330" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11358,19 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J331" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11347,9 +11405,13 @@
         <v>10.52</v>
       </c>
       <c r="J332" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
+        <v>10.54</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11384,11 +11446,11 @@
         <v>10.53</v>
       </c>
       <c r="J333" t="n">
-        <v>10.52</v>
+        <v>10.54</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -11419,15 +11481,17 @@
         <v>-4867340.033161491</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J334" t="n">
-        <v>10.52</v>
+        <v>10.54</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11466,7 +11530,11 @@
       <c r="J335" t="n">
         <v>10.54</v>
       </c>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +11573,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11536,15 +11604,17 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J337" t="n">
         <v>10.54</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11585,7 +11655,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -11616,11 +11686,9 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>10.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>10.54</v>
       </c>
@@ -11815,9 +11883,11 @@
         <v>-4943716.871961491</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J344" t="n">
         <v>10.54</v>
       </c>
@@ -11854,9 +11924,11 @@
         <v>-4933330.507561491</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J345" t="n">
         <v>10.54</v>
       </c>
@@ -11893,9 +11965,11 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J346" t="n">
         <v>10.54</v>
       </c>
@@ -11932,9 +12006,11 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J347" t="n">
         <v>10.54</v>
       </c>
@@ -11971,9 +12047,11 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J348" t="n">
         <v>10.54</v>
       </c>
@@ -12010,9 +12088,11 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J349" t="n">
         <v>10.54</v>
       </c>
@@ -12049,9 +12129,11 @@
         <v>-4935004.842461491</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J350" t="n">
         <v>10.54</v>
       </c>
@@ -12088,9 +12170,11 @@
         <v>-4966405.854761491</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J351" t="n">
         <v>10.54</v>
       </c>
@@ -12127,9 +12211,11 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J352" t="n">
         <v>10.54</v>
       </c>
@@ -12166,9 +12252,11 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J353" t="n">
         <v>10.54</v>
       </c>
@@ -12205,9 +12293,11 @@
         <v>-4514346.399861491</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J354" t="n">
         <v>10.54</v>
       </c>
@@ -12478,9 +12568,11 @@
         <v>-4541219.474517566</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>10.59</v>
+      </c>
       <c r="J361" t="n">
         <v>10.54</v>
       </c>
@@ -13024,9 +13116,11 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J375" t="n">
         <v>10.54</v>
       </c>
@@ -13063,9 +13157,11 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J376" t="n">
         <v>10.54</v>
       </c>
@@ -13102,9 +13198,11 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J377" t="n">
         <v>10.54</v>
       </c>
@@ -13141,9 +13239,11 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J378" t="n">
         <v>10.54</v>
       </c>
@@ -13180,9 +13280,11 @@
         <v>-4952647.541639159</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J379" t="n">
         <v>10.54</v>
       </c>
@@ -13219,9 +13321,11 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J380" t="n">
         <v>10.54</v>
       </c>
@@ -13258,9 +13362,11 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J381" t="n">
         <v>10.54</v>
       </c>
@@ -13297,9 +13403,11 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J382" t="n">
         <v>10.54</v>
       </c>
@@ -13336,9 +13444,11 @@
         <v>-4952555.775539159</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J383" t="n">
         <v>10.54</v>
       </c>
@@ -13375,9 +13485,11 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J384" t="n">
         <v>10.54</v>
       </c>
@@ -13414,9 +13526,11 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J385" t="n">
         <v>10.54</v>
       </c>
@@ -13492,9 +13606,11 @@
         <v>-4952277.147171234</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J387" t="n">
         <v>10.54</v>
       </c>
@@ -13570,9 +13686,11 @@
         <v>-4952432.556871234</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J389" t="n">
         <v>10.54</v>
       </c>
@@ -13609,9 +13727,11 @@
         <v>-4952530.556871234</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J390" t="n">
         <v>10.54</v>
       </c>
@@ -13648,9 +13768,11 @@
         <v>-4938718.393271234</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J391" t="n">
         <v>10.54</v>
       </c>
@@ -13687,9 +13809,11 @@
         <v>-4937662.618271234</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J392" t="n">
         <v>10.54</v>
       </c>
@@ -13726,9 +13850,11 @@
         <v>-5037662.618271234</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J393" t="n">
         <v>10.54</v>
       </c>
@@ -13765,9 +13891,11 @@
         <v>-5037662.618271234</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J394" t="n">
         <v>10.54</v>
       </c>
@@ -13804,9 +13932,11 @@
         <v>-5094649.939571233</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J395" t="n">
         <v>10.54</v>
       </c>
@@ -13843,9 +13973,11 @@
         <v>-4814418.057888214</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J396" t="n">
         <v>10.54</v>
       </c>
@@ -15013,9 +15145,11 @@
         <v>-4877185.115423594</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J426" t="n">
         <v>10.54</v>
       </c>
@@ -16341,9 +16475,11 @@
         <v>-5759258.150523594</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J460" t="n">
         <v>10.54</v>
       </c>
@@ -16540,11 +16676,9 @@
         <v>-5976657.124523594</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
         <v>10.54</v>
       </c>
@@ -16581,11 +16715,9 @@
         <v>-6064603.609023594</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
         <v>10.54</v>
       </c>
@@ -16782,9 +16914,11 @@
         <v>-6043003.744023594</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J471" t="n">
         <v>10.54</v>
       </c>
@@ -16821,9 +16955,11 @@
         <v>-6097416.670523594</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J472" t="n">
         <v>10.54</v>
       </c>
@@ -16860,9 +16996,11 @@
         <v>-6071376.159823594</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J473" t="n">
         <v>10.54</v>
       </c>
@@ -16899,9 +17037,11 @@
         <v>-6064849.372923594</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J474" t="n">
         <v>10.54</v>
       </c>
@@ -16938,9 +17078,11 @@
         <v>-6060972.478623594</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J475" t="n">
         <v>10.54</v>
       </c>
@@ -16977,9 +17119,11 @@
         <v>-6060972.478623594</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J476" t="n">
         <v>10.54</v>
       </c>
@@ -17016,9 +17160,11 @@
         <v>-6048634.793923594</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J477" t="n">
         <v>10.54</v>
       </c>
@@ -17055,9 +17201,11 @@
         <v>-6086734.406923594</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J478" t="n">
         <v>10.54</v>
       </c>
@@ -17094,9 +17242,11 @@
         <v>-6086685.406923594</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J479" t="n">
         <v>10.54</v>
       </c>
@@ -17250,9 +17400,11 @@
         <v>-6088780.966923594</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J483" t="n">
         <v>10.54</v>
       </c>
@@ -17289,9 +17441,11 @@
         <v>-6088731.966923594</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J484" t="n">
         <v>10.54</v>
       </c>
@@ -17328,9 +17482,11 @@
         <v>-6088731.966923594</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J485" t="n">
         <v>10.54</v>
       </c>
@@ -17406,9 +17562,11 @@
         <v>-6139608.799223593</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J487" t="n">
         <v>10.54</v>
       </c>
@@ -17445,9 +17603,11 @@
         <v>-6139608.799223593</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J488" t="n">
         <v>10.54</v>
       </c>
@@ -17484,9 +17644,11 @@
         <v>-6221581.455623593</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J489" t="n">
         <v>10.54</v>
       </c>
@@ -17523,9 +17685,11 @@
         <v>-6197174.798823593</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J490" t="n">
         <v>10.54</v>
       </c>
@@ -17562,9 +17726,11 @@
         <v>-6197259.214123594</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>10.78</v>
+      </c>
       <c r="J491" t="n">
         <v>10.54</v>
       </c>
